--- a/biology/Botanique/Doliocarpus/Doliocarpus.xlsx
+++ b/biology/Botanique/Doliocarpus/Doliocarpus.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Doliocarpus est un genre de plantes à fleurs néotropicales, appartenant à la famille des Dilleniaceae et comprenant 54 espèces valides. L'espèce type est Doliocarpus rolandri J.F. Gmel..
 </t>
@@ -511,9 +523,11 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le genre Doliocarpus réunit des espèces de lianes ligneuses ou des arbustes dressés ou grimpants. Les tiges renferment des faisceaux vasculaires disposés en bandes ou en anneaux concentriques, séparés par un parenchyme abondant. Les feuilles simples alternes, sont lisses, dentées, sinuées ou entières, pennatinervées, pubescentes à trichomes simples. Les stipules sont absentes ou rapidement caduques. Le pétiole est souvent plus ou moins ailé. Les inflorescences sont axillaires ou ramiflores, racémeuses, paniculées, fasciculées, agglomérées, ou constituées de fleurs solitaires. La fleur est bisexuée avec 3–6 sépales subégaux, persistants, et 2–6 pétales obovales, caducs. On compte de nombreuses étamines (20–100) composées de filets filiformes et de petites anthères longitudinalement déhiscentes. L'ovaire est constitué d'un  unique carpelle à une seule loge, contenant (1)2 ovules , basaux, anatropes. Le style filiforme est terminal et le stigmate est pelté. Le fruit est une capsule ou une baie contenant 1 ou 2 graines entourée d'un arille entier, blanc[2].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le genre Doliocarpus réunit des espèces de lianes ligneuses ou des arbustes dressés ou grimpants. Les tiges renferment des faisceaux vasculaires disposés en bandes ou en anneaux concentriques, séparés par un parenchyme abondant. Les feuilles simples alternes, sont lisses, dentées, sinuées ou entières, pennatinervées, pubescentes à trichomes simples. Les stipules sont absentes ou rapidement caduques. Le pétiole est souvent plus ou moins ailé. Les inflorescences sont axillaires ou ramiflores, racémeuses, paniculées, fasciculées, agglomérées, ou constituées de fleurs solitaires. La fleur est bisexuée avec 3–6 sépales subégaux, persistants, et 2–6 pétales obovales, caducs. On compte de nombreuses étamines (20–100) composées de filets filiformes et de petites anthères longitudinalement déhiscentes. L'ovaire est constitué d'un  unique carpelle à une seule loge, contenant (1)2 ovules , basaux, anatropes. Le style filiforme est terminal et le stigmate est pelté. Le fruit est une capsule ou une baie contenant 1 ou 2 graines entourée d'un arille entier, blanc.
 </t>
         </is>
       </c>
@@ -542,10 +556,48 @@
           <t>Liste d'espèces</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Selon The Plant List (28/11/2021)[3] :
-Espèces valides
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Selon The Plant List (28/11/2021) :
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Doliocarpus</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Doliocarpus</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>Liste d'espèces</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Espèces valides</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
 Doliocarpus amazonicus Sleumer
 Doliocarpus aracaensis Aymard
 Doliocarpus areolatus Kubitzki
@@ -600,7 +652,43 @@
 Doliocarpus triananus Aymard
 Doliocarpus validus Kubitzki
 Doliocarpus verruculosus Kubnzki
-Noms non résolus
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Doliocarpus</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Doliocarpus</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>Liste d'espèces</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Noms non résolus</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
 Doliocarpus calineoides (Eichler) Gilg
 Doliocarpus demtarus Standl.
 Doliocarpus floribundus Huber
